--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il17b-Il17rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il17b-Il17rb.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Il17b</t>
+  </si>
+  <si>
+    <t>Il17rb</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il17b</t>
-  </si>
-  <si>
-    <t>Il17rb</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,19 +528,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.080385</v>
+        <v>0.128774</v>
       </c>
       <c r="H2">
-        <v>0.241155</v>
+        <v>0.386322</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.555886</v>
+        <v>2.060782666666667</v>
       </c>
       <c r="N2">
-        <v>4.667658</v>
+        <v>6.182348</v>
       </c>
       <c r="O2">
-        <v>0.212472600269789</v>
+        <v>0.2355590467032963</v>
       </c>
       <c r="P2">
-        <v>0.212472600269789</v>
+        <v>0.2355590467032963</v>
       </c>
       <c r="Q2">
-        <v>0.12506989611</v>
+        <v>0.2653752271173334</v>
       </c>
       <c r="R2">
-        <v>1.12562906499</v>
+        <v>2.388377044056</v>
       </c>
       <c r="S2">
-        <v>0.212472600269789</v>
+        <v>0.2355590467032963</v>
       </c>
       <c r="T2">
-        <v>0.212472600269789</v>
+        <v>0.2355590467032963</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,19 +590,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.080385</v>
+        <v>0.128774</v>
       </c>
       <c r="H3">
-        <v>0.241155</v>
+        <v>0.386322</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>9.394521999999998</v>
       </c>
       <c r="O3">
-        <v>0.4276402679098893</v>
+        <v>0.3579488968516726</v>
       </c>
       <c r="P3">
-        <v>0.4276402679098893</v>
+        <v>0.3579488968516725</v>
       </c>
       <c r="Q3">
-        <v>0.25172621699</v>
+        <v>0.4032567253426666</v>
       </c>
       <c r="R3">
-        <v>2.26553595291</v>
+        <v>3.629310528083999</v>
       </c>
       <c r="S3">
-        <v>0.4276402679098893</v>
+        <v>0.3579488968516726</v>
       </c>
       <c r="T3">
-        <v>0.4276402679098893</v>
+        <v>0.3579488968516725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,19 +652,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.080385</v>
+        <v>0.128774</v>
       </c>
       <c r="H4">
-        <v>0.241155</v>
+        <v>0.386322</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.551978666666667</v>
+        <v>2.215918666666667</v>
       </c>
       <c r="N4">
-        <v>4.655936000000001</v>
+        <v>6.647756</v>
       </c>
       <c r="O4">
-        <v>0.2119390128003638</v>
+        <v>0.2532919638422357</v>
       </c>
       <c r="P4">
-        <v>0.2119390128003638</v>
+        <v>0.2532919638422357</v>
       </c>
       <c r="Q4">
-        <v>0.12475580512</v>
+        <v>0.2853527103813333</v>
       </c>
       <c r="R4">
-        <v>1.12280224608</v>
+        <v>2.568174393432</v>
       </c>
       <c r="S4">
-        <v>0.2119390128003638</v>
+        <v>0.2532919638422357</v>
       </c>
       <c r="T4">
-        <v>0.2119390128003638</v>
+        <v>0.2532919638422357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.080385</v>
+        <v>0.128774</v>
       </c>
       <c r="H5">
-        <v>0.241155</v>
+        <v>0.386322</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.083388666666667</v>
+        <v>1.340267333333333</v>
       </c>
       <c r="N5">
-        <v>3.250166</v>
+        <v>4.020802</v>
       </c>
       <c r="O5">
-        <v>0.147948119019958</v>
+        <v>0.1532000926027954</v>
       </c>
       <c r="P5">
-        <v>0.147948119019958</v>
+        <v>0.1532000926027954</v>
       </c>
       <c r="Q5">
-        <v>0.08708819797</v>
+        <v>0.1725915855826667</v>
       </c>
       <c r="R5">
-        <v>0.78379378173</v>
+        <v>1.553324270244</v>
       </c>
       <c r="S5">
-        <v>0.147948119019958</v>
+        <v>0.1532000926027954</v>
       </c>
       <c r="T5">
-        <v>0.147948119019958</v>
+        <v>0.1532000926027954</v>
       </c>
     </row>
   </sheetData>
